--- a/medicine/Hématologie/Philip_Levine_(médecin)/Philip_Levine_(médecin).xlsx
+++ b/medicine/Hématologie/Philip_Levine_(médecin)/Philip_Levine_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Philip_Levine_(m%C3%A9decin)</t>
+          <t>Philip_Levine_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Levine (10 août 1900 - 18 octobre 1987) est un immuno-hématologiste américain, qui a découvert avec Karl Landsteiner les antigènes de groupe sanguin M et N du système MNS et P1 par immunisation d'un animal. Il a postulé, avec Stetson[1], en 1939, la cause immunologique de la maladie hémolytique du nouveau-né et a, de ce fait, participé avec Karl Landsteiner et Alexander Solomon Wiener à la caractérisation des anticorps du système Rhésus. L'antigène rhésus initial, mis en évidence grâce à un sérum de macaque immunisé, a été rebaptisé LW, en l'honneur de ses découvreurs, sur la suggestion de Levine.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Levine (10 août 1900 - 18 octobre 1987) est un immuno-hématologiste américain, qui a découvert avec Karl Landsteiner les antigènes de groupe sanguin M et N du système MNS et P1 par immunisation d'un animal. Il a postulé, avec Stetson, en 1939, la cause immunologique de la maladie hémolytique du nouveau-né et a, de ce fait, participé avec Karl Landsteiner et Alexander Solomon Wiener à la caractérisation des anticorps du système Rhésus. L'antigène rhésus initial, mis en évidence grâce à un sérum de macaque immunisé, a été rebaptisé LW, en l'honneur de ses découvreurs, sur la suggestion de Levine.
 </t>
         </is>
       </c>
